--- a/Encode_Decode_Testing_Automation/Encode_Decode_Testing_Automation/AutomatedData_#1.xlsx
+++ b/Encode_Decode_Testing_Automation/Encode_Decode_Testing_Automation/AutomatedData_#1.xlsx
@@ -313,25 +313,25 @@
         <v>23</v>
       </c>
       <c r="J2" s="0">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="K2" s="0">
-        <v>0.9975427985191345</v>
+        <v>17.621091842651367</v>
       </c>
       <c r="L2" s="0">
-        <v>22.50324821472168</v>
+        <v>26.588579177856445</v>
       </c>
       <c r="M2" s="0">
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>22.50324821472168</v>
+        <v>26.588579177856445</v>
       </c>
       <c r="O2" s="0">
-        <v>22.50324821472168</v>
+        <v>26.588579177856445</v>
       </c>
       <c r="P2" s="0">
-        <v>22.50324821472168</v>
+        <v>26.588579177856445</v>
       </c>
     </row>
     <row r="3">
@@ -363,25 +363,25 @@
         <v>24</v>
       </c>
       <c r="J3" s="0">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="K3" s="0">
-        <v>7.349383354187012</v>
+        <v>21.47583770751953</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>30.45853614807129</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0</v>
+        <v>30.45853614807129</v>
       </c>
       <c r="O3" s="0">
-        <v>0</v>
+        <v>30.45853614807129</v>
       </c>
       <c r="P3" s="0">
-        <v>0</v>
+        <v>30.45853614807129</v>
       </c>
     </row>
     <row r="4">
@@ -413,10 +413,10 @@
         <v>23</v>
       </c>
       <c r="J4" s="0">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K4" s="0">
-        <v>96.86479949951172</v>
+        <v>98.46024322509766</v>
       </c>
       <c r="L4" s="0">
         <v>0</v>
@@ -463,10 +463,10 @@
         <v>24</v>
       </c>
       <c r="J5" s="0">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="K5" s="0">
-        <v>96.32862091064453</v>
+        <v>98.88385772705078</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
@@ -513,25 +513,25 @@
         <v>23</v>
       </c>
       <c r="J6" s="0">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K6" s="0">
-        <v>1.596012830734253</v>
+        <v>6.8969526290893555</v>
       </c>
       <c r="L6" s="0">
-        <v>0.4838549494743347</v>
+        <v>28.196874618530273</v>
       </c>
       <c r="M6" s="0">
-        <v>0.4838549494743347</v>
+        <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0</v>
+        <v>28.196874618530273</v>
       </c>
       <c r="O6" s="0">
-        <v>0</v>
+        <v>28.196874618530273</v>
       </c>
       <c r="P6" s="0">
-        <v>0</v>
+        <v>28.196874618530273</v>
       </c>
     </row>
     <row r="7">
@@ -563,25 +563,25 @@
         <v>24</v>
       </c>
       <c r="J7" s="0">
-        <v>1280</v>
+        <v>1296</v>
       </c>
       <c r="K7" s="0">
-        <v>1.7636951208114624</v>
+        <v>12.116253852844238</v>
       </c>
       <c r="L7" s="0">
-        <v>0</v>
+        <v>29.300199508666992</v>
       </c>
       <c r="M7" s="0">
         <v>0</v>
       </c>
       <c r="N7" s="0">
-        <v>0</v>
+        <v>29.300199508666992</v>
       </c>
       <c r="O7" s="0">
-        <v>0</v>
+        <v>29.300199508666992</v>
       </c>
       <c r="P7" s="0">
-        <v>0</v>
+        <v>29.300199508666992</v>
       </c>
     </row>
     <row r="8">
@@ -613,25 +613,25 @@
         <v>23</v>
       </c>
       <c r="J8" s="0">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="K8" s="0">
-        <v>1.4936214685440063</v>
+        <v>2.2789266109466553</v>
       </c>
       <c r="L8" s="0">
-        <v>2.2136762142181396</v>
+        <v>14.099319458007812</v>
       </c>
       <c r="M8" s="0">
-        <v>2.2136762142181396</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>0</v>
+        <v>14.099319458007812</v>
       </c>
       <c r="O8" s="0">
-        <v>0</v>
+        <v>14.099319458007812</v>
       </c>
       <c r="P8" s="0">
-        <v>0</v>
+        <v>14.099319458007812</v>
       </c>
     </row>
     <row r="9">
@@ -663,25 +663,25 @@
         <v>24</v>
       </c>
       <c r="J9" s="0">
-        <v>1270</v>
+        <v>1247</v>
       </c>
       <c r="K9" s="0">
-        <v>1.072413682937622</v>
+        <v>16.810388565063477</v>
       </c>
       <c r="L9" s="0">
-        <v>1.900001883506775</v>
+        <v>26.81682777404785</v>
       </c>
       <c r="M9" s="0">
-        <v>1.900001883506775</v>
+        <v>0</v>
       </c>
       <c r="N9" s="0">
-        <v>0</v>
+        <v>26.81682777404785</v>
       </c>
       <c r="O9" s="0">
-        <v>0</v>
+        <v>26.81682777404785</v>
       </c>
       <c r="P9" s="0">
-        <v>0</v>
+        <v>26.81682777404785</v>
       </c>
     </row>
     <row r="10">
@@ -713,25 +713,25 @@
         <v>23</v>
       </c>
       <c r="J10" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K10" s="0">
-        <v>1.4481910467147827</v>
+        <v>20.21453285217285</v>
       </c>
       <c r="L10" s="0">
-        <v>0.3873990774154663</v>
+        <v>26.408594131469727</v>
       </c>
       <c r="M10" s="0">
-        <v>0.3873990774154663</v>
+        <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>0</v>
+        <v>26.408594131469727</v>
       </c>
       <c r="O10" s="0">
-        <v>0</v>
+        <v>26.408594131469727</v>
       </c>
       <c r="P10" s="0">
-        <v>0</v>
+        <v>26.408594131469727</v>
       </c>
     </row>
     <row r="11">
@@ -763,25 +763,25 @@
         <v>24</v>
       </c>
       <c r="J11" s="0">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="K11" s="0">
-        <v>7.932557106018066</v>
+        <v>14.328110694885254</v>
       </c>
       <c r="L11" s="0">
-        <v>1.7262789011001587</v>
+        <v>28.18211555480957</v>
       </c>
       <c r="M11" s="0">
-        <v>1.7262789011001587</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>0</v>
+        <v>28.18211555480957</v>
       </c>
       <c r="O11" s="0">
-        <v>0</v>
+        <v>28.18211555480957</v>
       </c>
       <c r="P11" s="0">
-        <v>0</v>
+        <v>28.18211555480957</v>
       </c>
     </row>
     <row r="12">
@@ -813,25 +813,25 @@
         <v>23</v>
       </c>
       <c r="J12" s="0">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K12" s="0">
-        <v>1.9367836713790894</v>
+        <v>20.949209213256836</v>
       </c>
       <c r="L12" s="0">
-        <v>0</v>
+        <v>25.833906173706055</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.9190548062324524</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>25.833906173706055</v>
       </c>
       <c r="O12" s="0">
-        <v>0</v>
+        <v>25.833906173706055</v>
       </c>
       <c r="P12" s="0">
-        <v>0</v>
+        <v>25.833906173706055</v>
       </c>
     </row>
     <row r="13">
@@ -863,25 +863,25 @@
         <v>24</v>
       </c>
       <c r="J13" s="0">
-        <v>731</v>
+        <v>777</v>
       </c>
       <c r="K13" s="0">
-        <v>5.431003570556641</v>
+        <v>7.879369735717773</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>25.10709571838379</v>
       </c>
       <c r="M13" s="0">
-        <v>0</v>
+        <v>0.9244616627693176</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>25.10709571838379</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>25.10709571838379</v>
       </c>
       <c r="P13" s="0">
-        <v>0</v>
+        <v>25.10709571838379</v>
       </c>
     </row>
     <row r="14">
@@ -913,25 +913,25 @@
         <v>23</v>
       </c>
       <c r="J14" s="0">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="K14" s="0">
-        <v>0.877167820930481</v>
+        <v>10.913361549377441</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>26.30238914489746</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
       </c>
       <c r="N14" s="0">
-        <v>0</v>
+        <v>26.30238914489746</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>26.30238914489746</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>26.30238914489746</v>
       </c>
     </row>
     <row r="15">
@@ -963,25 +963,25 @@
         <v>24</v>
       </c>
       <c r="J15" s="0">
-        <v>496</v>
+        <v>733</v>
       </c>
       <c r="K15" s="0">
-        <v>0.22383077442646027</v>
+        <v>16.599267959594727</v>
       </c>
       <c r="L15" s="0">
-        <v>0.6102765202522278</v>
+        <v>27.28713035583496</v>
       </c>
       <c r="M15" s="0">
-        <v>0.6102765202522278</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>27.28713035583496</v>
       </c>
       <c r="O15" s="0">
-        <v>0</v>
+        <v>27.28713035583496</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>27.28713035583496</v>
       </c>
     </row>
     <row r="16">
@@ -1013,16 +1013,16 @@
         <v>23</v>
       </c>
       <c r="J16" s="0">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K16" s="0">
-        <v>95.72794342041016</v>
+        <v>100</v>
       </c>
       <c r="L16" s="0">
-        <v>5.038769245147705</v>
+        <v>0</v>
       </c>
       <c r="M16" s="0">
-        <v>5.038769245147705</v>
+        <v>0</v>
       </c>
       <c r="N16" s="0">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>24</v>
       </c>
       <c r="J17" s="0">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K17" s="0">
-        <v>95.74378204345703</v>
+        <v>94.29720306396484</v>
       </c>
       <c r="L17" s="0">
         <v>0</v>
@@ -1113,25 +1113,25 @@
         <v>23</v>
       </c>
       <c r="J18" s="0">
-        <v>210</v>
+        <v>388</v>
       </c>
       <c r="K18" s="0">
-        <v>1.1821566820144653</v>
+        <v>10.857698440551758</v>
       </c>
       <c r="L18" s="0">
-        <v>3.953129291534424</v>
+        <v>34.50070571899414</v>
       </c>
       <c r="M18" s="0">
-        <v>3.953129291534424</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0">
-        <v>0</v>
+        <v>34.50070571899414</v>
       </c>
       <c r="O18" s="0">
-        <v>0</v>
+        <v>34.50070571899414</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>34.50070571899414</v>
       </c>
     </row>
     <row r="19">
@@ -1163,25 +1163,25 @@
         <v>24</v>
       </c>
       <c r="J19" s="0">
-        <v>763</v>
+        <v>1185</v>
       </c>
       <c r="K19" s="0">
-        <v>0.4823581278324127</v>
+        <v>21.38238525390625</v>
       </c>
       <c r="L19" s="0">
-        <v>0</v>
+        <v>25.125295639038086</v>
       </c>
       <c r="M19" s="0">
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0</v>
+        <v>25.125295639038086</v>
       </c>
       <c r="O19" s="0">
-        <v>0</v>
+        <v>25.125295639038086</v>
       </c>
       <c r="P19" s="0">
-        <v>0</v>
+        <v>25.125295639038086</v>
       </c>
     </row>
     <row r="20">
@@ -1213,25 +1213,25 @@
         <v>23</v>
       </c>
       <c r="J20" s="0">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="K20" s="0">
-        <v>2.7357406616210938</v>
+        <v>2.812453031539917</v>
       </c>
       <c r="L20" s="0">
-        <v>0</v>
+        <v>19.11069679260254</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>0</v>
+        <v>19.11069679260254</v>
       </c>
       <c r="O20" s="0">
-        <v>0</v>
+        <v>19.11069679260254</v>
       </c>
       <c r="P20" s="0">
-        <v>0</v>
+        <v>19.11069679260254</v>
       </c>
     </row>
     <row r="21">
@@ -1263,25 +1263,25 @@
         <v>24</v>
       </c>
       <c r="J21" s="0">
-        <v>708</v>
+        <v>1150</v>
       </c>
       <c r="K21" s="0">
-        <v>1.0404404401779175</v>
+        <v>16.815645217895508</v>
       </c>
       <c r="L21" s="0">
-        <v>0</v>
+        <v>25.067977905273438</v>
       </c>
       <c r="M21" s="0">
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0</v>
+        <v>25.067977905273438</v>
       </c>
       <c r="O21" s="0">
-        <v>0</v>
+        <v>25.067977905273438</v>
       </c>
       <c r="P21" s="0">
-        <v>0</v>
+        <v>25.067977905273438</v>
       </c>
     </row>
     <row r="22">
@@ -1313,10 +1313,10 @@
         <v>23</v>
       </c>
       <c r="J22" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K22" s="0">
-        <v>46.29330062866211</v>
+        <v>61.7293815612793</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
@@ -1363,10 +1363,10 @@
         <v>24</v>
       </c>
       <c r="J23" s="0">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K23" s="0">
-        <v>26.40294075012207</v>
+        <v>29.058059692382812</v>
       </c>
       <c r="L23" s="0">
         <v>0</v>
@@ -1413,16 +1413,16 @@
         <v>23</v>
       </c>
       <c r="J24" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K24" s="0">
-        <v>46.54022216796875</v>
+        <v>84.183837890625</v>
       </c>
       <c r="L24" s="0">
-        <v>0.66268390417099</v>
+        <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>0.66268390417099</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>24</v>
       </c>
       <c r="J25" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K25" s="0">
-        <v>27.068782806396484</v>
+        <v>44.06192398071289</v>
       </c>
       <c r="L25" s="0">
-        <v>3.974015474319458</v>
+        <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>3.974015474319458</v>
+        <v>0</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -1513,16 +1513,16 @@
         <v>23</v>
       </c>
       <c r="J26" s="0">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="K26" s="0">
-        <v>20.826705932617188</v>
+        <v>97.72952270507812</v>
       </c>
       <c r="L26" s="0">
-        <v>11.27963638305664</v>
+        <v>0</v>
       </c>
       <c r="M26" s="0">
-        <v>11.27963638305664</v>
+        <v>0</v>
       </c>
       <c r="N26" s="0">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>24</v>
       </c>
       <c r="J27" s="0">
-        <v>456</v>
+        <v>746</v>
       </c>
       <c r="K27" s="0">
-        <v>18.833396911621094</v>
+        <v>95.534912109375</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>23</v>
       </c>
       <c r="J28" s="0">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="K28" s="0">
-        <v>2.4802913665771484</v>
+        <v>100</v>
       </c>
       <c r="L28" s="0">
-        <v>10.279447555541992</v>
+        <v>2.6386754512786865</v>
       </c>
       <c r="M28" s="0">
-        <v>10.279447555541992</v>
+        <v>2.6386754512786865</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>24</v>
       </c>
       <c r="J29" s="0">
-        <v>576</v>
+        <v>750</v>
       </c>
       <c r="K29" s="0">
-        <v>17.54740333557129</v>
+        <v>100</v>
       </c>
       <c r="L29" s="0">
-        <v>0</v>
+        <v>5.44494104385376</v>
       </c>
       <c r="M29" s="0">
-        <v>0</v>
+        <v>5.44494104385376</v>
       </c>
       <c r="N29" s="0">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>23</v>
       </c>
       <c r="J30" s="0">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="K30" s="0">
-        <v>0.18301570415496826</v>
+        <v>39.1628303527832</v>
       </c>
       <c r="L30" s="0">
         <v>0</v>
@@ -1763,16 +1763,16 @@
         <v>24</v>
       </c>
       <c r="J31" s="0">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K31" s="0">
-        <v>4.181140422821045</v>
+        <v>34.250022888183594</v>
       </c>
       <c r="L31" s="0">
-        <v>16.68617057800293</v>
+        <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>16.68617057800293</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>23</v>
       </c>
       <c r="J32" s="0">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="K32" s="0">
-        <v>23.07952117919922</v>
+        <v>7.479406833648682</v>
       </c>
       <c r="L32" s="0">
-        <v>16.918807983398438</v>
+        <v>2.7800204753875732</v>
       </c>
       <c r="M32" s="0">
-        <v>16.918807983398438</v>
+        <v>2.7800204753875732</v>
       </c>
       <c r="N32" s="0">
         <v>0</v>
@@ -1863,16 +1863,16 @@
         <v>24</v>
       </c>
       <c r="J33" s="0">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="K33" s="0">
-        <v>10.26257610321045</v>
+        <v>31.7457275390625</v>
       </c>
       <c r="L33" s="0">
-        <v>21.324249267578125</v>
+        <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>21.324249267578125</v>
+        <v>0</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -1913,16 +1913,16 @@
         <v>23</v>
       </c>
       <c r="J34" s="0">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K34" s="0">
-        <v>0.9922208189964294</v>
+        <v>50.31303787231445</v>
       </c>
       <c r="L34" s="0">
-        <v>4.914417743682861</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0">
-        <v>4.914417743682861</v>
+        <v>0</v>
       </c>
       <c r="N34" s="0">
         <v>0</v>
@@ -1963,10 +1963,10 @@
         <v>24</v>
       </c>
       <c r="J35" s="0">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K35" s="0">
-        <v>6.703387260437012</v>
+        <v>19.989492416381836</v>
       </c>
       <c r="L35" s="0">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>23</v>
       </c>
       <c r="J36" s="0">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K36" s="0">
-        <v>1.0386008024215698</v>
+        <v>45.84857940673828</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -2063,10 +2063,10 @@
         <v>24</v>
       </c>
       <c r="J37" s="0">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K37" s="0">
-        <v>0.6419753432273865</v>
+        <v>36.94546890258789</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -2116,13 +2116,13 @@
         <v>245</v>
       </c>
       <c r="K38" s="0">
-        <v>9.498773574829102</v>
+        <v>84.23802947998047</v>
       </c>
       <c r="L38" s="0">
-        <v>0</v>
+        <v>2.9143178462982178</v>
       </c>
       <c r="M38" s="0">
-        <v>0</v>
+        <v>2.9143178462982178</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>24</v>
       </c>
       <c r="J39" s="0">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="K39" s="0">
-        <v>91.7506332397461</v>
+        <v>92.1136703491211</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>23</v>
       </c>
       <c r="J40" s="0">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K40" s="0">
-        <v>97.20848846435547</v>
+        <v>97.06330108642578</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -2263,10 +2263,10 @@
         <v>24</v>
       </c>
       <c r="J41" s="0">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="K41" s="0">
-        <v>97.42562866210938</v>
+        <v>91.86456298828125</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         <v>23</v>
       </c>
       <c r="J42" s="0">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K42" s="0">
-        <v>45.704410552978516</v>
+        <v>58.31727600097656</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>24</v>
       </c>
       <c r="J43" s="0">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K43" s="0">
-        <v>25.19841957092285</v>
+        <v>21.459056854248047</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>23</v>
       </c>
       <c r="J44" s="0">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K44" s="0">
-        <v>44.73389434814453</v>
+        <v>57.44271469116211</v>
       </c>
       <c r="L44" s="0">
-        <v>0</v>
+        <v>0.963473379611969</v>
       </c>
       <c r="M44" s="0">
-        <v>0</v>
+        <v>0.963473379611969</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -2463,10 +2463,10 @@
         <v>24</v>
       </c>
       <c r="J45" s="0">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K45" s="0">
-        <v>26.883127212524414</v>
+        <v>29.060293197631836</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -2513,10 +2513,10 @@
         <v>23</v>
       </c>
       <c r="J46" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="0">
-        <v>46.21533203125</v>
+        <v>44.82014083862305</v>
       </c>
       <c r="L46" s="0">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>24</v>
       </c>
       <c r="J47" s="0">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K47" s="0">
-        <v>29.692049026489258</v>
+        <v>32.24708938598633</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -2613,16 +2613,16 @@
         <v>23</v>
       </c>
       <c r="J48" s="0">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K48" s="0">
-        <v>47.14164733886719</v>
+        <v>49.32958221435547</v>
       </c>
       <c r="L48" s="0">
-        <v>0</v>
+        <v>0.14421513676643372</v>
       </c>
       <c r="M48" s="0">
-        <v>0</v>
+        <v>0.14421513676643372</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -2663,10 +2663,10 @@
         <v>24</v>
       </c>
       <c r="J49" s="0">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K49" s="0">
-        <v>26.981775283813477</v>
+        <v>34.65614318847656</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
